--- a/r_worksheets.xlsx
+++ b/r_worksheets.xlsx
@@ -98,6 +98,9 @@
     <t xml:space="preserve">weekday</t>
   </si>
   <si>
+    <t xml:space="preserve">Sat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sun</t>
   </si>
   <si>
@@ -114,9 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sat</t>
   </si>
   <si>
     <t xml:space="preserve">browser</t>
@@ -1802,13 +1802,13 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -1822,13 +1822,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="n">
+        <v>140847</v>
+      </c>
+      <c r="C2" t="n">
+        <v>263776</v>
+      </c>
+      <c r="D2" t="n">
         <v>5952256</v>
-      </c>
-      <c r="C2" t="n">
-        <v>140847</v>
-      </c>
-      <c r="D2" t="n">
-        <v>263776</v>
       </c>
       <c r="E2" t="n">
         <v>0.023662792729345</v>
@@ -1842,13 +1842,13 @@
         <v>37</v>
       </c>
       <c r="B3" t="n">
+        <v>66247</v>
+      </c>
+      <c r="C3" t="n">
+        <v>125468</v>
+      </c>
+      <c r="D3" t="n">
         <v>2527254</v>
-      </c>
-      <c r="C3" t="n">
-        <v>66247</v>
-      </c>
-      <c r="D3" t="n">
-        <v>125468</v>
       </c>
       <c r="E3" t="n">
         <v>0.0262130359671011</v>
@@ -1862,13 +1862,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="n">
+        <v>3046</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5113</v>
+      </c>
+      <c r="D4" t="n">
         <v>518573</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3046</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5113</v>
       </c>
       <c r="E4" t="n">
         <v>0.00587381140167344</v>
@@ -1882,13 +1882,13 @@
         <v>39</v>
       </c>
       <c r="B5" t="n">
+        <v>17376</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31279</v>
+      </c>
+      <c r="D5" t="n">
         <v>495779</v>
-      </c>
-      <c r="C5" t="n">
-        <v>17376</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31279</v>
       </c>
       <c r="E5" t="n">
         <v>0.0350478741536047</v>
@@ -1902,13 +1902,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="n">
+        <v>14373</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11016</v>
+      </c>
+      <c r="D6" t="n">
         <v>469325</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14373</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11016</v>
       </c>
       <c r="E6" t="n">
         <v>0.0306248335375273</v>
@@ -1922,13 +1922,13 @@
         <v>41</v>
       </c>
       <c r="B7" t="n">
+        <v>6338</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11814</v>
+      </c>
+      <c r="D7" t="n">
         <v>246329</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6338</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11814</v>
       </c>
       <c r="E7" t="n">
         <v>0.0257298166273561</v>
@@ -1942,13 +1942,13 @@
         <v>42</v>
       </c>
       <c r="B8" t="n">
+        <v>289</v>
+      </c>
+      <c r="C8" t="n">
+        <v>406</v>
+      </c>
+      <c r="D8" t="n">
         <v>98408</v>
-      </c>
-      <c r="C8" t="n">
-        <v>289</v>
-      </c>
-      <c r="D8" t="n">
-        <v>406</v>
       </c>
       <c r="E8" t="n">
         <v>0.00293675310950329</v>
@@ -1962,13 +1962,13 @@
         <v>43</v>
       </c>
       <c r="B9" t="n">
+        <v>456</v>
+      </c>
+      <c r="C9" t="n">
+        <v>774</v>
+      </c>
+      <c r="D9" t="n">
         <v>56632</v>
-      </c>
-      <c r="C9" t="n">
-        <v>456</v>
-      </c>
-      <c r="D9" t="n">
-        <v>774</v>
       </c>
       <c r="E9" t="n">
         <v>0.00805198474360785</v>
@@ -1982,13 +1982,13 @@
         <v>44</v>
       </c>
       <c r="B10" t="n">
+        <v>524</v>
+      </c>
+      <c r="C10" t="n">
+        <v>836</v>
+      </c>
+      <c r="D10" t="n">
         <v>35379</v>
-      </c>
-      <c r="C10" t="n">
-        <v>524</v>
-      </c>
-      <c r="D10" t="n">
-        <v>836</v>
       </c>
       <c r="E10" t="n">
         <v>0.0148110461007943</v>
@@ -2002,13 +2002,13 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>227</v>
+      </c>
+      <c r="D11" t="n">
         <v>5695</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" t="n">
-        <v>227</v>
       </c>
       <c r="E11" t="n">
         <v>0.0175592625109745</v>
@@ -2022,13 +2022,13 @@
         <v>46</v>
       </c>
       <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
         <v>3865</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>0.00155239327296248</v>
@@ -2042,13 +2042,13 @@
         <v>47</v>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>2359</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>48</v>
       </c>
       <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
         <v>2319</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>0.00301854247520483</v>
@@ -2082,13 +2082,13 @@
         <v>49</v>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>1225</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -2102,13 +2102,13 @@
         <v>50</v>
       </c>
       <c r="B16" t="n">
+        <v>29</v>
+      </c>
+      <c r="C16" t="n">
+        <v>86</v>
+      </c>
+      <c r="D16" t="n">
         <v>829</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29</v>
-      </c>
-      <c r="D16" t="n">
-        <v>86</v>
       </c>
       <c r="E16" t="n">
         <v>0.0349819059107358</v>
@@ -2122,13 +2122,13 @@
         <v>51</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>491</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -2142,13 +2142,13 @@
         <v>52</v>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>387</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>53</v>
       </c>
       <c r="B19" t="n">
-        <v>372</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>372</v>
       </c>
       <c r="E19" t="n">
         <v>0.00806451612903226</v>
@@ -2182,13 +2182,13 @@
         <v>54</v>
       </c>
       <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
         <v>272</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0.00735294117647059</v>
@@ -2202,13 +2202,13 @@
         <v>55</v>
       </c>
       <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
         <v>255</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0.0117647058823529</v>
@@ -2222,13 +2222,13 @@
         <v>56</v>
       </c>
       <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="n">
         <v>208</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" t="n">
-        <v>6</v>
       </c>
       <c r="E22" t="n">
         <v>0.0240384615384615</v>
@@ -2242,13 +2242,13 @@
         <v>57</v>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>133</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2262,13 +2262,13 @@
         <v>58</v>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
         <v>131</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2282,13 +2282,13 @@
         <v>59</v>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>117</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2302,13 +2302,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>101</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2322,13 +2322,13 @@
         <v>61</v>
       </c>
       <c r="B27" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
         <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E27" t="n">
         <v>0.0563380281690141</v>
@@ -2342,13 +2342,13 @@
         <v>62</v>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
         <v>28</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>63</v>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>18</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2382,13 +2382,13 @@
         <v>64</v>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>17</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2402,13 +2402,13 @@
         <v>65</v>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
         <v>17</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2422,13 +2422,13 @@
         <v>66</v>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>13</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>67</v>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
         <v>12</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2462,13 +2462,13 @@
         <v>68</v>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
         <v>6</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>69</v>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>4</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>70</v>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
         <v>4</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2522,13 +2522,13 @@
         <v>71</v>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
         <v>4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -2542,13 +2542,13 @@
         <v>72</v>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2562,13 +2562,13 @@
         <v>73</v>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
         <v>2</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2582,13 +2582,13 @@
         <v>74</v>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>2</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>75</v>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>2</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2622,13 +2622,13 @@
         <v>76</v>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
         <v>2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>77</v>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
         <v>2</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2662,13 +2662,13 @@
         <v>78</v>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>79</v>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
         <v>2</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2702,13 +2702,13 @@
         <v>80</v>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
         <v>2</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>81</v>
       </c>
       <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
         <v>1</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2742,13 +2742,13 @@
         <v>82</v>
       </c>
       <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
         <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2762,13 +2762,13 @@
         <v>83</v>
       </c>
       <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
         <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>84</v>
       </c>
       <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
         <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2802,13 +2802,13 @@
         <v>85</v>
       </c>
       <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
         <v>1</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2822,13 +2822,13 @@
         <v>86</v>
       </c>
       <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
         <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
